--- a/biology/Botanique/Princesse_de_Monaco_(rose)/Princesse_de_Monaco_(rose).xlsx
+++ b/biology/Botanique/Princesse_de_Monaco_(rose)/Princesse_de_Monaco_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Princesse de Monaco' est un cultivar de rosier hybride de thé obtenu par la rosiériste française  Marie-Louise Meilland en 1981. Il est dédié à la princesse Grace de Monaco (1929-1982) qui présida en 1981 le jury du salon de la rose à Monaco. Ce rosier est issu du croisement 'Ambassador' (Meilland 1977) x 'Madame Antoine Meilland' (Meilland 1935)[1].
+'Princesse de Monaco' est un cultivar de rosier hybride de thé obtenu par la rosiériste française  Marie-Louise Meilland en 1981. Il est dédié à la princesse Grace de Monaco (1929-1982) qui présida en 1981 le jury du salon de la rose à Monaco. Ce rosier est issu du croisement 'Ambassador' (Meilland 1977) x 'Madame Antoine Meilland' (Meilland 1935).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce buisson, atteignant 80 cm de hauteur (parfois beaucoup plus en situation favorable) au feuillage dense et vert foncé[2], montre de juin à octobre de grandes roses (13-14 cm)[3] d'une élégance indéniable et d'une délicatesse remarquable. Elles sont blanc-crème aux pétales ondulés doucement marginés de rose carmin. Les fleurs sur de longues tiges sont idéales pour les fleurs à couper. Elles éclairent à merveille les plates-bandes des jardins.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce buisson, atteignant 80 cm de hauteur (parfois beaucoup plus en situation favorable) au feuillage dense et vert foncé, montre de juin à octobre de grandes roses (13-14 cm) d'une élégance indéniable et d'une délicatesse remarquable. Elles sont blanc-crème aux pétales ondulés doucement marginés de rose carmin. Les fleurs sur de longues tiges sont idéales pour les fleurs à couper. Elles éclairent à merveille les plates-bandes des jardins.
 Ce rosier a besoin d'une exposition ensoleillée et résiste à -20°.
 Il existe une variété grimpante de 'Princesse de Monaco' depuis 2014.
 			Rose 'Princesse de Monaco' au Japon.
